--- a/biology/Zoologie/Azuré_de_la_sauge/Azuré_de_la_sauge.xlsx
+++ b/biology/Zoologie/Azuré_de_la_sauge/Azuré_de_la_sauge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_sauge</t>
+          <t>Azuré_de_la_sauge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudophilotes bavius
 L’Azuré de la sauge (Pseudophilotes bavius) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Pseudophilotes. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_sauge</t>
+          <t>Azuré_de_la_sauge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,89 +524,91 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pseudophilotes bavius (Eduard Friedrich von Eversmann, 1832)
-Synonyme : Lycaena bavius (Eversmann, 1832)[1].
-Noms vernaculaires
-L’Azuré de la sauge se nomme en anglais Bavius Blue.
-Sous-espèces
-Pseudophilotes bavius bavius présent en Russie et au Kazakhstan.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudophilotes bavius (Eduard Friedrich von Eversmann, 1832)
+Synonyme : Lycaena bavius (Eversmann, 1832).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré de la sauge se nomme en anglais Bavius Blue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pseudophilotes bavius bavius présent en Russie et au Kazakhstan.
 Pseudophilotes bavius casimiri (Hemming) présent en Grèce.
 Pseudophilotes bavius egea (Herrich-Schäffer, 1852) présent au Caucase.
 Pseudophilotes bavius fatma (Oberthür, 1890) l’Azuré maghrébin de la sauge présent en Afrique du Nord (Anti-Atlas marocain et algérien)
 Pseudophilotes bavius hungaricus (Diozeghy,1913) présent en Roumanie.
-Pseudophilotes bavius macedonicus (Schulte) présent en Grèce[1],[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_la_sauge</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit papillon bleu ou grisâtre suivant les sous-espèces qui présente aux ailes postérieures une ligne de taches submarginales orange.
-Le revers est beige très peu suffusé de bleu et orné de lignes de petits points noirs et d'une ligne submarginale de taches orange à l'aile postérieure[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_la_sauge</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération en mai-juin.
-Les chenilles sont soignées par les fourmis.
-Il hiverne au stade nymphal[2].
-Parasitisme
-Le parasitisme par un hyménoptère, Apantales lycaenae peut atteindre 95 % en Roumanie.
-Plantes hôtes
-Ses plantes hôtes sont diverses Salvia, Salvia argentea pour l'Azuré maghrébin de la sauge, Salvia nutans en Roumanie, Salvia officinalis et Salvia verbenaca en Grèce[2].
-</t>
+Pseudophilotes bavius macedonicus (Schulte) présent en Grèce,.</t>
         </is>
       </c>
     </row>
@@ -604,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_sauge</t>
+          <t>Azuré_de_la_sauge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,16 +633,235 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon bleu ou grisâtre suivant les sous-espèces qui présente aux ailes postérieures une ligne de taches submarginales orange.
+Le revers est beige très peu suffusé de bleu et orné de lignes de petits points noirs et d'une ligne submarginale de taches orange à l'aile postérieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en mai-juin.
+Les chenilles sont soignées par les fourmis.
+Il hiverne au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parasitisme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parasitisme par un hyménoptère, Apantales lycaenae peut atteindre 95 % en Roumanie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses Salvia, Salvia argentea pour l'Azuré maghrébin de la sauge, Salvia nutans en Roumanie, Salvia officinalis et Salvia verbenaca en Grèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en petites colonies isolées en Afrique du Nord et dans le sud-est de l'Europe, Roumanie, Hongrie, Macédoine, Grèce, et en Turquie[2]. Il est aussi présent en Asie Mineure, dans le sud de la Russie et le nord du Kazakhstan[1].
-Biotope
-Son habitat est constitué de broussailles sèches.
-Protection
-Il est inscrit sur le liste rouge des insectes en Grèce, Macédoine, Roumanie, Turquie, Ukraine et Yougoslavie[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en petites colonies isolées en Afrique du Nord et dans le sud-est de l'Europe, Roumanie, Hongrie, Macédoine, Grèce, et en Turquie. Il est aussi présent en Asie Mineure, dans le sud de la Russie et le nord du Kazakhstan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est constitué de broussailles sèches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_sauge</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inscrit sur le liste rouge des insectes en Grèce, Macédoine, Roumanie, Turquie, Ukraine et Yougoslavie.
 </t>
         </is>
       </c>
